--- a/Сессия 1/Книга1.xlsx
+++ b/Сессия 1/Книга1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Lerning\Разработка программных модулей\LangSchool\Сессия 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Lerning\Programming\LangSchool\Сессия 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A9F262A-A1A7-41CE-80DF-2764E678774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0EBFAD-900F-42B3-A656-3A24BD2145C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{638DA88B-EB31-44BE-82F6-1475B38425C1}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{638DA88B-EB31-44BE-82F6-1475B38425C1}"/>
   </bookViews>
   <sheets>
     <sheet name="client_import" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="803">
   <si>
     <t>Фамилия</t>
   </si>
@@ -2886,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A87303-300A-4B25-A8C9-DEA97F36F792}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1048576"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5844,8 +5844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77079D52-E0AF-499E-9C2B-0B072984B9B8}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I101"/>
+    <sheetView tabSelected="1" topLeftCell="E101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5858,7 +5858,7 @@
     <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -5916,7 +5916,9 @@
       <c r="I2" s="2">
         <v>43330</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -5946,7 +5948,9 @@
       <c r="I3" s="2">
         <v>42775</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -5976,7 +5980,9 @@
       <c r="I4" s="2">
         <v>42376</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -6006,7 +6012,9 @@
       <c r="I5" s="2">
         <v>42529</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -6036,7 +6044,9 @@
       <c r="I6" s="2">
         <v>42707</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -6066,7 +6076,9 @@
       <c r="I7" s="2">
         <v>42503</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -6096,7 +6108,9 @@
       <c r="I8" s="2">
         <v>43072</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -6126,7 +6140,9 @@
       <c r="I9" s="2">
         <v>42767</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -6156,7 +6172,9 @@
       <c r="I10" s="2">
         <v>43376</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -6186,7 +6204,9 @@
       <c r="I11" s="2">
         <v>42999</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -6216,7 +6236,9 @@
       <c r="I12" s="2">
         <v>43427</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -6246,7 +6268,9 @@
       <c r="I13" s="2">
         <v>42393</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -6276,7 +6300,9 @@
       <c r="I14" s="2">
         <v>43442</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -6306,7 +6332,9 @@
       <c r="I15" s="2">
         <v>43452</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -6336,7 +6364,9 @@
       <c r="I16" s="2">
         <v>43153</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -6366,7 +6396,9 @@
       <c r="I17" s="2">
         <v>43120</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -6396,7 +6428,9 @@
       <c r="I18" s="2">
         <v>42425</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -6426,7 +6460,9 @@
       <c r="I19" s="2">
         <v>42736</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -6456,7 +6492,9 @@
       <c r="I20" s="2">
         <v>42746</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -6486,7 +6524,9 @@
       <c r="I21" s="2">
         <v>42450</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -6516,7 +6556,9 @@
       <c r="I22" s="2">
         <v>43187</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -6546,7 +6588,9 @@
       <c r="I23" s="2">
         <v>42864</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -6576,7 +6620,9 @@
       <c r="I24" s="2">
         <v>43009</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -6606,7 +6652,9 @@
       <c r="I25" s="2">
         <v>42423</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -6636,7 +6684,9 @@
       <c r="I26" s="2">
         <v>42753</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -6666,7 +6716,9 @@
       <c r="I27" s="2">
         <v>42492</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -6696,7 +6748,9 @@
       <c r="I28" s="2">
         <v>43451</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -6726,7 +6780,9 @@
       <c r="I29" s="2">
         <v>42883</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -6756,7 +6812,9 @@
       <c r="I30" s="2">
         <v>42551</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -6786,7 +6844,9 @@
       <c r="I31" s="2">
         <v>43386</v>
       </c>
-      <c r="J31" s="3"/>
+      <c r="J31" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -6816,7 +6876,9 @@
       <c r="I32" s="2">
         <v>42559</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -6846,7 +6908,9 @@
       <c r="I33" s="2">
         <v>42556</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -6876,7 +6940,9 @@
       <c r="I34" s="2">
         <v>43167</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -6906,7 +6972,9 @@
       <c r="I35" s="2">
         <v>42586</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -6936,7 +7004,9 @@
       <c r="I36" s="2">
         <v>42650</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -6966,7 +7036,9 @@
       <c r="I37" s="2">
         <v>43059</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -6996,7 +7068,9 @@
       <c r="I38" s="2">
         <v>43103</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -7026,7 +7100,9 @@
       <c r="I39" s="2">
         <v>43005</v>
       </c>
-      <c r="J39" s="3"/>
+      <c r="J39" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -7056,7 +7132,9 @@
       <c r="I40" s="2">
         <v>42397</v>
       </c>
-      <c r="J40" s="4"/>
+      <c r="J40" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -7086,7 +7164,9 @@
       <c r="I41" s="2">
         <v>42805</v>
       </c>
-      <c r="J41" s="3"/>
+      <c r="J41" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -7116,7 +7196,9 @@
       <c r="I42" s="2">
         <v>43196</v>
       </c>
-      <c r="J42" s="4"/>
+      <c r="J42" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -7146,7 +7228,9 @@
       <c r="I43" s="2">
         <v>42934</v>
       </c>
-      <c r="J43" s="3"/>
+      <c r="J43" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -7176,7 +7260,9 @@
       <c r="I44" s="2">
         <v>42900</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -7206,7 +7292,9 @@
       <c r="I45" s="2">
         <v>43145</v>
       </c>
-      <c r="J45" s="3"/>
+      <c r="J45" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -7236,7 +7324,9 @@
       <c r="I46" s="2">
         <v>42690</v>
       </c>
-      <c r="J46" s="4"/>
+      <c r="J46" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -7266,7 +7356,9 @@
       <c r="I47" s="2">
         <v>42967</v>
       </c>
-      <c r="J47" s="3"/>
+      <c r="J47" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -7296,7 +7388,9 @@
       <c r="I48" s="2">
         <v>42512</v>
       </c>
-      <c r="J48" s="4"/>
+      <c r="J48" s="3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
@@ -7326,7 +7420,9 @@
       <c r="I49" s="2">
         <v>43132</v>
       </c>
-      <c r="J49" s="3"/>
+      <c r="J49" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
@@ -7356,7 +7452,9 @@
       <c r="I50" s="2">
         <v>42487</v>
       </c>
-      <c r="J50" s="4"/>
+      <c r="J50" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -7386,7 +7484,9 @@
       <c r="I51" s="2">
         <v>43276</v>
       </c>
-      <c r="J51" s="3"/>
+      <c r="J51" s="4" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
@@ -7416,7 +7516,9 @@
       <c r="I52" s="2">
         <v>42860</v>
       </c>
-      <c r="J52" s="4"/>
+      <c r="J52" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -7446,7 +7548,9 @@
       <c r="I53" s="2">
         <v>42511</v>
       </c>
-      <c r="J53" s="3"/>
+      <c r="J53" s="4" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -7476,7 +7580,9 @@
       <c r="I54" s="2">
         <v>43081</v>
       </c>
-      <c r="J54" s="4"/>
+      <c r="J54" s="3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -7506,7 +7612,9 @@
       <c r="I55" s="2">
         <v>43158</v>
       </c>
-      <c r="J55" s="3"/>
+      <c r="J55" s="4" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -7536,7 +7644,9 @@
       <c r="I56" s="2">
         <v>42570</v>
       </c>
-      <c r="J56" s="4"/>
+      <c r="J56" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -7566,7 +7676,9 @@
       <c r="I57" s="2">
         <v>43304</v>
       </c>
-      <c r="J57" s="3"/>
+      <c r="J57" s="4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -7596,7 +7708,9 @@
       <c r="I58" s="2">
         <v>43428</v>
       </c>
-      <c r="J58" s="4"/>
+      <c r="J58" s="3" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -7626,7 +7740,9 @@
       <c r="I59" s="2">
         <v>42568</v>
       </c>
-      <c r="J59" s="3"/>
+      <c r="J59" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -7656,7 +7772,9 @@
       <c r="I60" s="2">
         <v>42411</v>
       </c>
-      <c r="J60" s="4"/>
+      <c r="J60" s="3" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -7686,7 +7804,9 @@
       <c r="I61" s="2">
         <v>42656</v>
       </c>
-      <c r="J61" s="3"/>
+      <c r="J61" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -7716,7 +7836,9 @@
       <c r="I62" s="2">
         <v>42627</v>
       </c>
-      <c r="J62" s="4"/>
+      <c r="J62" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -7746,7 +7868,9 @@
       <c r="I63" s="2">
         <v>43049</v>
       </c>
-      <c r="J63" s="3"/>
+      <c r="J63" s="4" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -7776,7 +7900,9 @@
       <c r="I64" s="2">
         <v>42951</v>
       </c>
-      <c r="J64" s="4"/>
+      <c r="J64" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -7806,7 +7932,9 @@
       <c r="I65" s="2">
         <v>42477</v>
       </c>
-      <c r="J65" s="3"/>
+      <c r="J65" s="4" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -7836,7 +7964,9 @@
       <c r="I66" s="2">
         <v>43020</v>
       </c>
-      <c r="J66" s="4"/>
+      <c r="J66" s="3" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -7866,7 +7996,9 @@
       <c r="I67" s="2">
         <v>42765</v>
       </c>
-      <c r="J67" s="3"/>
+      <c r="J67" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -7896,7 +8028,9 @@
       <c r="I68" s="2">
         <v>42862</v>
       </c>
-      <c r="J68" s="4"/>
+      <c r="J68" s="3" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
@@ -7926,7 +8060,9 @@
       <c r="I69" s="2">
         <v>42737</v>
       </c>
-      <c r="J69" s="3"/>
+      <c r="J69" s="4" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
@@ -7956,7 +8092,9 @@
       <c r="I70" s="2">
         <v>42984</v>
       </c>
-      <c r="J70" s="4"/>
+      <c r="J70" s="3" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
@@ -7986,7 +8124,9 @@
       <c r="I71" s="2">
         <v>43428</v>
       </c>
-      <c r="J71" s="3"/>
+      <c r="J71" s="4" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -8016,7 +8156,9 @@
       <c r="I72" s="2">
         <v>42516</v>
       </c>
-      <c r="J72" s="4"/>
+      <c r="J72" s="3" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -8046,7 +8188,9 @@
       <c r="I73" s="2">
         <v>43095</v>
       </c>
-      <c r="J73" s="3"/>
+      <c r="J73" s="4" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -8076,7 +8220,9 @@
       <c r="I74" s="2">
         <v>43272</v>
       </c>
-      <c r="J74" s="4"/>
+      <c r="J74" s="3" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -8106,7 +8252,9 @@
       <c r="I75" s="2">
         <v>42570</v>
       </c>
-      <c r="J75" s="3"/>
+      <c r="J75" s="4" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -8136,7 +8284,9 @@
       <c r="I76" s="2">
         <v>43328</v>
       </c>
-      <c r="J76" s="4"/>
+      <c r="J76" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -8166,7 +8316,9 @@
       <c r="I77" s="2">
         <v>43177</v>
       </c>
-      <c r="J77" s="3"/>
+      <c r="J77" s="4" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -8196,7 +8348,9 @@
       <c r="I78" s="2">
         <v>43199</v>
       </c>
-      <c r="J78" s="4"/>
+      <c r="J78" s="3" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -8226,7 +8380,9 @@
       <c r="I79" s="2">
         <v>43380</v>
       </c>
-      <c r="J79" s="3"/>
+      <c r="J79" s="4" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -8256,7 +8412,9 @@
       <c r="I80" s="2">
         <v>42777</v>
       </c>
-      <c r="J80" s="4"/>
+      <c r="J80" s="3" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -8286,7 +8444,9 @@
       <c r="I81" s="2">
         <v>43304</v>
       </c>
-      <c r="J81" s="3"/>
+      <c r="J81" s="4" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
@@ -8316,7 +8476,9 @@
       <c r="I82" s="2">
         <v>42595</v>
       </c>
-      <c r="J82" s="4"/>
+      <c r="J82" s="3" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -8346,7 +8508,9 @@
       <c r="I83" s="2">
         <v>43164</v>
       </c>
-      <c r="J83" s="3"/>
+      <c r="J83" s="4" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -8376,7 +8540,9 @@
       <c r="I84" s="2">
         <v>43439</v>
       </c>
-      <c r="J84" s="4"/>
+      <c r="J84" s="3" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -8406,7 +8572,9 @@
       <c r="I85" s="2">
         <v>42712</v>
       </c>
-      <c r="J85" s="3"/>
+      <c r="J85" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
@@ -8436,7 +8604,9 @@
       <c r="I86" s="2">
         <v>43380</v>
       </c>
-      <c r="J86" s="4"/>
+      <c r="J86" s="3" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -8466,7 +8636,9 @@
       <c r="I87" s="2">
         <v>42456</v>
       </c>
-      <c r="J87" s="3"/>
+      <c r="J87" s="4" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -8496,7 +8668,9 @@
       <c r="I88" s="2">
         <v>42948</v>
       </c>
-      <c r="J88" s="4"/>
+      <c r="J88" s="3" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -8526,7 +8700,9 @@
       <c r="I89" s="2">
         <v>43272</v>
       </c>
-      <c r="J89" s="3"/>
+      <c r="J89" s="4" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
@@ -8556,7 +8732,9 @@
       <c r="I90" s="2">
         <v>43201</v>
       </c>
-      <c r="J90" s="4"/>
+      <c r="J90" s="3" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
@@ -8586,7 +8764,9 @@
       <c r="I91" s="2">
         <v>43090</v>
       </c>
-      <c r="J91" s="3"/>
+      <c r="J91" s="4" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
@@ -8616,7 +8796,9 @@
       <c r="I92" s="2">
         <v>43132</v>
       </c>
-      <c r="J92" s="4"/>
+      <c r="J92" s="3" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
@@ -8646,7 +8828,9 @@
       <c r="I93" s="2">
         <v>42551</v>
       </c>
-      <c r="J93" s="3"/>
+      <c r="J93" s="4" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
@@ -8676,7 +8860,9 @@
       <c r="I94" s="2">
         <v>43412</v>
       </c>
-      <c r="J94" s="4"/>
+      <c r="J94" s="3" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
@@ -8706,7 +8892,9 @@
       <c r="I95" s="2">
         <v>42412</v>
       </c>
-      <c r="J95" s="3"/>
+      <c r="J95" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
@@ -8736,7 +8924,9 @@
       <c r="I96" s="2">
         <v>42883</v>
       </c>
-      <c r="J96" s="4"/>
+      <c r="J96" s="3" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
@@ -8766,7 +8956,9 @@
       <c r="I97" s="2">
         <v>42426</v>
       </c>
-      <c r="J97" s="3"/>
+      <c r="J97" s="4" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
@@ -8796,7 +8988,9 @@
       <c r="I98" s="2">
         <v>42773</v>
       </c>
-      <c r="J98" s="4"/>
+      <c r="J98" s="3" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
@@ -8826,7 +9020,9 @@
       <c r="I99" s="2">
         <v>42682</v>
       </c>
-      <c r="J99" s="3"/>
+      <c r="J99" s="4" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -8856,7 +9052,9 @@
       <c r="I100" s="2">
         <v>43115</v>
       </c>
-      <c r="J100" s="5"/>
+      <c r="J100" s="3" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
@@ -8885,6 +9083,9 @@
       </c>
       <c r="I101" s="2">
         <v>43316</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -8896,7 +9097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B921E99-2024-4BAB-B487-6585880158FA}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E51" sqref="A2:E51"/>
     </sheetView>
   </sheetViews>
